--- a/Travaux_pratiques/horaire.xlsx
+++ b/Travaux_pratiques/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/Évaluations/TP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/Travaux_pratiques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{6B144FEA-6786-43C2-8237-0FDCA04BC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFCDB3B8-7A64-4307-B676-3DC9C100BAB2}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{6B144FEA-6786-43C2-8237-0FDCA04BC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078E4FF7-A164-4012-8E18-EC25E1DC2D9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA0EFCAC-6D97-4835-B17A-3F94E28E3BFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA0EFCAC-6D97-4835-B17A-3F94E28E3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="rencontre 1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>mardi 18: 11h30</t>
   </si>
   <si>
-    <t>lundi 17: 11h</t>
-  </si>
-  <si>
     <t>jeudi 20: 10h30</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>lundi 17: 10h30</t>
+  </si>
+  <si>
+    <t>jeudi 20: 9h30</t>
   </si>
 </sst>
 </file>
@@ -523,17 +523,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088F03A1-6AF0-4B76-9FC2-A83DA92F9B05}">
   <dimension ref="A3:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -603,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -635,34 +635,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -670,25 +670,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>

--- a/Travaux_pratiques/horaire.xlsx
+++ b/Travaux_pratiques/horaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/Travaux_pratiques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{6B144FEA-6786-43C2-8237-0FDCA04BC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078E4FF7-A164-4012-8E18-EC25E1DC2D9E}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{6B144FEA-6786-43C2-8237-0FDCA04BC550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29222C57-C686-448F-94F2-EC199EC0D02A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA0EFCAC-6D97-4835-B17A-3F94E28E3BFF}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{FA0EFCAC-6D97-4835-B17A-3F94E28E3BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="rencontre 1" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,68 +534,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088F03A1-6AF0-4B76-9FC2-A83DA92F9B05}">
   <dimension ref="A3:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -595,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -603,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -611,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -619,7 +630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -627,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -635,18 +646,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -654,43 +665,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
